--- a/medicine/Enfance/Georges_Price/Georges_Price.xlsx
+++ b/medicine/Enfance/Georges_Price/Georges_Price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ferdinand-Gustave Petitpierre, né le 29 octobre 1853 à Nantes et mort le 11 février 1920 dans le 9e arrondissement de Paris[1], au nom de plume de Georges Price, est un avocat et homme de lettres français, auteur de nombreux essais et romans d’aventures.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ferdinand-Gustave Petitpierre, né le 29 octobre 1853 à Nantes et mort le 11 février 1920 dans le 9e arrondissement de Paris, au nom de plume de Georges Price, est un avocat et homme de lettres français, auteur de nombreux essais et romans d’aventures.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,13 +551,15 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Historiettes de France et d’Espagne, Calmann-Lévy — 1881
 L’œuvre littéraire et dramatique de Jules Amigues, Librairie de l’Indépendant littéraire — 1887
-Croquis de province[2], Messageries de la Presse — 1888
+Croquis de province, Messageries de la Presse — 1888
 La Maison neuve, Librairie des bibliophiles — 1888
-Paris qui passe[3], en collaboration avec Paul Belon, Préface de Jules Claretie, A. Savine — 1888
+Paris qui passe, en collaboration avec Paul Belon, Préface de Jules Claretie, A. Savine — 1888
 Péché de jeunesse, A. Savine — 1889
 Petite histoire des grands journaux, C. Dalou — 1889
 Les Trois disparus du Sirius, Alfred Mame et fils — 1896
@@ -553,7 +569,7 @@
 Le Rachat des chemins de fer, examen des intérêts des compagnies, du public, des finances de l’état, H. Dunod et E. Pinat — 1907
 La Rançon du sommeil, E. Flammarion — 1910
 L’Étoile du Pacifique, Alfred Mame et fils — 1911
-La Mine d'or infernale[4], Alfred Mame et fils — 1920
+La Mine d'or infernale, Alfred Mame et fils — 1920
 La Grotte mystérieuse, Alfred Mame et fils — 1923</t>
         </is>
       </c>
